--- a/biology/Médecine/Alfred_Blaschko/Alfred_Blaschko.xlsx
+++ b/biology/Médecine/Alfred_Blaschko/Alfred_Blaschko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Blaschko (né le 3 mars 1858 - mort le 26 mars 1922) est un dermatologue allemand. 
 Il est connu pour ses travaux sur les lignes de Blaschko.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1881, il obtient son doctorat en médecine à Berlin, puis travaille avec Georg Wegner (1843–1917) à Stettin. Il ouvre alors un cabinet dermatologique privé à Berlin.
 En 1886, après un séjour dans des cliniques dermatologique à Vienne, Blaschko s'est spécialisé dans l'étude des dermatoses professionnelles. Il travaille alors sur la détection d'argent dans la peau des métallurgistes.
@@ -552,7 +566,9 @@
           <t>Travaux (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Betrachtungen zur Architektonik der Oberhaut. Berlin 1887.
 Behandlung der Geschlechtskrankheiten in Krankenkassen und Krankenhäusern. Berlin 1890.
